--- a/addLater/Parabellum.xlsx
+++ b/addLater/Parabellum.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
@@ -8,7 +8,13 @@
   <sheets>
     <sheet name="Planilha1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$1</definedName>
+  </definedNames>
   <calcPr/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
+  </extLst>
 </workbook>
 </file>
 
@@ -27,6 +33,219 @@
     <t xml:space="preserve">Publication Date</t>
   </si>
   <si>
+    <t xml:space="preserve">Primo de Rivera - Mártir (Me Ne Frego Especial)</t>
+  </si>
+  <si>
+    <t>https://podcasters.spotify.com/pod/show/parabellum/episodes/Primo-de-Rivera---Mrtir-Me-Ne-Frego-Especial-e17vqj5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Franco - Generalissimo (Me Ne Frego Especial)</t>
+  </si>
+  <si>
+    <t>https://podcasters.spotify.com/pod/show/parabellum/episodes/Franco---Generalissimo-Me-Ne-Frego-Especial-e17vq1g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hirohito - O Filho do Sol (Me Ne Frego Especial)</t>
+  </si>
+  <si>
+    <t>https://podcasters.spotify.com/pod/show/parabellum/episodes/Hirohito---O-Filho-do-Sol-Me-Ne-Frego-Especial-e17vplq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Revista Semanal do Amigo Pecuarista (Me Ne Frego e Rajji)</t>
+  </si>
+  <si>
+    <t>https://anchor.fm/s/6d5d0134/podcast/play/41000347/https%3A%2F%2Fd3ctxlq1ktw2nl.cloudfront.net%2Fstaging%2F2021-8-29%2Fe37f66ed-58d7-0a4f-c99c-e3272c24c967.mp3</t>
+  </si>
+  <si>
+    <t>https://podcasters.spotify.com/pod/show/parabellum/episodes/A-Revista-Semanal-do-Amigo-Pecuarista-Me-Ne-Frego-e-Rajji-e181nur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os Doze Trabalhos de Hércules 1-6 (Me Ne Frego e Invictus)</t>
+  </si>
+  <si>
+    <t>https://anchor.fm/s/6d5d0134/podcast/play/41182164/https%3A%2F%2Fd3ctxlq1ktw2nl.cloudfront.net%2Fstaging%2F2021-9-2%2Ffd1cb292-abe9-97d5-5389-25637c0d5a29.mp3</t>
+  </si>
+  <si>
+    <t>https://podcasters.spotify.com/pod/show/parabellum/episodes/Os-Doze-Trabalhos-de-Hrcules-1-6-Me-Ne-Frego-e-Invictus-e1879gk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os Doze Trabalhos de Hércules 7-12 (Me Ne Frego e Invictus)</t>
+  </si>
+  <si>
+    <t>https://anchor.fm/s/6d5d0134/podcast/play/41182490/https%3A%2F%2Fd3ctxlq1ktw2nl.cloudfront.net%2Fstaging%2F2021-9-2%2Ff12f378f-de7f-a0d1-6ac1-9cdea15bdaba.mp3</t>
+  </si>
+  <si>
+    <t>https://podcasters.spotify.com/pod/show/parabellum/episodes/Os-Doze-Trabalhos-de-Hrcules-7-12-Me-Ne-Frego-e-Invictus-e1879qq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Revista Semanal do Amigo NovoCastelista (Me Ne Frego e Rajji)</t>
+  </si>
+  <si>
+    <t>https://anchor.fm/s/6d5d0134/podcast/play/41685889/https%3A%2F%2Fd3ctxlq1ktw2nl.cloudfront.net%2Fstaging%2F2021-9-12%2F8c01c2e8-99ab-0a78-f569-b9e2ccae20ef.mp3</t>
+  </si>
+  <si>
+    <t>https://podcasters.spotify.com/pod/show/parabellum/episodes/A-Revista-Semanal-do-Amigo-NovoCastelista-Me-Ne-Frego-e-Rajji-e18mle1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Revista Semanal do Amigo DomingoLegalista (Me Ne Frego e Rajji)</t>
+  </si>
+  <si>
+    <t>https://podcasters.spotify.com/pod/show/parabellum/episodes/A-Revista-Semanal-do-Amigo-DomingoLegalista-Me-Ne-Frego-e-Rajji-e19d3ok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santos Pecadores (Me Ne Frego e Neném Preto)</t>
+  </si>
+  <si>
+    <t>https://anchor.fm/s/6d5d0134/podcast/play/42547941/https%3A%2F%2Fd3ctxlq1ktw2nl.cloudfront.net%2Fstaging%2F2021-9-29%2F469a6ce8-8914-5e6b-42e4-2acd16e23442.mp3</t>
+  </si>
+  <si>
+    <t>https://podcasters.spotify.com/pod/show/parabellum/episodes/Santos-Pecadores-Me-Ne-Frego-e-Nenm-Preto-e19gv95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Revista Semanal do Amigo BenMendista (Me Ne Frego e Rajji)</t>
+  </si>
+  <si>
+    <t>https://anchor.fm/s/6d5d0134/podcast/play/42948976/https%3A%2F%2Fd3ctxlq1ktw2nl.cloudfront.net%2Fstaging%2F2021-10-7%2F2c74ce7a-8794-b267-cedb-b60464037db8.mp3</t>
+  </si>
+  <si>
+    <t>https://podcasters.spotify.com/pod/show/parabellum/episodes/A-Revista-Semanal-do-Amigo-BenMendista-Me-Ne-Frego-e-Rajji-e19t6tg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Revista Semanal do Amigo PresuntoCuckista (Me Ne Frego e Rajji)</t>
+  </si>
+  <si>
+    <t>https://anchor.fm/s/6d5d0134/podcast/play/43773936/https%3A%2F%2Fd3ctxlq1ktw2nl.cloudfront.net%2Fstaging%2F2021-10-23%2F73efdbd7-ba63-6438-eefd-f56827bc7bd4.mp3</t>
+  </si>
+  <si>
+    <t>https://podcasters.spotify.com/pod/show/parabellum/episodes/A-Revista-Semanal-do-Amigo-PresuntoCuckista-Me-Ne-Frego-e-Rajji-e1amchg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corações Sujos: A História da Shindo-Renmei no Brasil (Me Ne Frego Especial)</t>
+  </si>
+  <si>
+    <t>https://anchor.fm/s/6d5d0134/podcast/play/44436712/https%3A%2F%2Fd3ctxlq1ktw2nl.cloudfront.net%2Fstaging%2F2021-11-6%2Fa7c91c8f-0ef6-1b89-d671-e88c5b0ee3f7.mp3</t>
+  </si>
+  <si>
+    <t>https://podcasters.spotify.com/pod/show/parabellum/episodes/Coraes-Sujos-A-Histria-da-Shindo-Renmei-no-Brasil-Me-Ne-Frego-Especial-e1bajp8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Revista Semanal do Amigo IT'S HAPPENista (Me Ne Frego, Rajji e Nadim)</t>
+  </si>
+  <si>
+    <t>https://anchor.fm/s/6d5d0134/podcast/play/44709137/https%3A%2F%2Fd3ctxlq1ktw2nl.cloudfront.net%2Fstaging%2F2021-11-11%2F908f7df2-8730-0bc5-18a7-cab91b4e544b.mp3</t>
+  </si>
+  <si>
+    <t>https://podcasters.spotify.com/pod/show/parabellum/episodes/A-Revista-Semanal-do-Amigo-ITS-HAPPENista-Me-Ne-Frego--Rajji-e-Nadim-e1bitqh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Revista Semanal do Amigo Natalista (com Based Viriato)</t>
+  </si>
+  <si>
+    <t>https://anchor.fm/s/6d5d0134/podcast/play/45380223/https%3A%2F%2Fd3ctxlq1ktw2nl.cloudfront.net%2Fstaging%2F2021-11-27%2Ffcd9ea12-98c5-b1e2-e0eb-b99f5fad180a.mp3</t>
+  </si>
+  <si>
+    <t>https://podcasters.spotify.com/pod/show/parabellum/episodes/A-Revista-Semanal-do-Amigo-Natalista-com-Based-Viriato-e1c7d5v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E AE#01 - Leitura de E-mails com Me Ne Frego e Rajji</t>
+  </si>
+  <si>
+    <t>https://anchor.fm/s/6d5d0134/podcast/play/46080909/https%3A%2F%2Fd3ctxlq1ktw2nl.cloudfront.net%2Fstaging%2F2022-0-13%2F2ec235c1-fb6f-eedf-0701-31452a9d313d.mp3</t>
+  </si>
+  <si>
+    <t>https://podcasters.spotify.com/pod/show/parabellum/episodes/E-AE01---Leitura-de-E-mails-com-Me-Ne-Frego-e-Rajji-e1csped</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Favela: Uma Amostra Grátis do Inferno - Nenemshow 1 (Nenem Preto)</t>
+  </si>
+  <si>
+    <t>https://anchor.fm/s/6d5d0134/podcast/play/46224964/https%3A%2F%2Fd3ctxlq1ktw2nl.cloudfront.net%2Fstaging%2F2022-0-16%2Feaabcbca-d88c-1899-40e4-87a7ba0c2695.mp3</t>
+  </si>
+  <si>
+    <t>https://podcasters.spotify.com/pod/show/parabellum/episodes/Favela-Uma-Amostra-Grtis-do-Inferno---Nenemshow-1-Nenem-Preto-e1d1644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Revista Semanal do Amigo Adolfista (Me Ne Frego e Rajji)</t>
+  </si>
+  <si>
+    <t>https://anchor.fm/s/6d5d0134/podcast/play/46774844/https%3A%2F%2Fd3ctxlq1ktw2nl.cloudfront.net%2Fstaging%2F2022-0-27%2F4583385d-e197-22a9-eac5-41601e17a001.mp3</t>
+  </si>
+  <si>
+    <t>https://podcasters.spotify.com/pod/show/parabellum/episodes/A-Revista-Semanal-do-Amigo-Adolfista-Me-Ne-Frego-e-Rajji-e1dhv3s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Revista Anual do Amigo Superbowlista (com Zatanna e sem o Rajji)</t>
+  </si>
+  <si>
+    <t>https://anchor.fm/s/6d5d0134/podcast/play/47615802/https%3A%2F%2Fd3ctxlq1ktw2nl.cloudfront.net%2Fstaging%2F2022-1-13%2Fd3b47731-3e41-9948-15bf-94d455366021.mp3</t>
+  </si>
+  <si>
+    <t>https://podcasters.spotify.com/pod/show/parabellum/episodes/A-Revista-Anual-do-Amigo-Superbowlista-com-Zatanna-e-sem-o-Rajji-e1ebkbq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Revista Semanal do Amigo Monarkista (Me Ne Frego e Rajji)</t>
+  </si>
+  <si>
+    <t>https://anchor.fm/s/6d5d0134/podcast/play/47854518/https%3A%2F%2Fd3ctxlq1ktw2nl.cloudfront.net%2Fstaging%2F2022-1-18%2Fb0b3c89d-a53a-2a92-5f88-4cb904ebd651.mp3</t>
+  </si>
+  <si>
+    <t>https://podcasters.spotify.com/pod/show/parabellum/episodes/A-Revista-Semanal-do-Amigo-Monarkista-Me-Ne-Frego-e-Rajji-e1eitfm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Revista Semanal do Amigo Guerrista, com Based Viriatov (ministro de propaganda Russa)</t>
+  </si>
+  <si>
+    <t>https://anchor.fm/s/6d5d0134/podcast/play/48292147/https%3A%2F%2Fd3ctxlq1ktw2nl.cloudfront.net%2Fstaging%2F2022-1-27%2F5b4ad467-d048-6dc8-6307-8b9ff6d4552f.mp3</t>
+  </si>
+  <si>
+    <t>https://podcasters.spotify.com/pod/show/parabellum/episodes/A-Revista-Semanal-do-Amigo-Guerrista--com-Based-Viriatov-ministro-de-propaganda-Russa-e1f08rj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E AEE - Leitura de E-mails com Me Ne Frego e Rajji</t>
+  </si>
+  <si>
+    <t>https://anchor.fm/s/6d5d0134/podcast/play/49270098/https%3A%2F%2Fd3ctxlq1ktw2nl.cloudfront.net%2Fstaging%2F2022-2-18%2Fca558bca-77d8-feb3-9a00-2a008e961cad.mp3</t>
+  </si>
+  <si>
+    <t>https://podcasters.spotify.com/pod/show/parabellum/episodes/E-AEE---Leitura-de-E-mails-com-Me-Ne-Frego-e-Rajji-e1fu3si</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E AEEE - Leitura de E-mails com Me Ne Frego e Rajji</t>
+  </si>
+  <si>
+    <t>https://anchor.fm/s/6d5d0134/podcast/play/49578472/https%3A%2F%2Fd3ctxlq1ktw2nl.cloudfront.net%2Fstaging%2F2022-2-25%2Fbdfb5a13-fafc-2fa6-f008-2eea3aa38fdf.mp3</t>
+  </si>
+  <si>
+    <t>https://podcasters.spotify.com/pod/show/parabellum/episodes/E-AEEE---Leitura-de-E-mails-com-Me-Ne-Frego-e-Rajji-e1g7h18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Revista Semanal do Amigo Onça-Pintadista</t>
+  </si>
+  <si>
+    <t>https://anchor.fm/s/6d5d0134/podcast/play/50685912/https%3A%2F%2Fd3ctxlq1ktw2nl.cloudfront.net%2Fstaging%2F2022-3-17%2Fe3460aee-cba8-1c5d-6e9c-60a5efba40a6.mp3</t>
+  </si>
+  <si>
+    <t>https://podcasters.spotify.com/pod/show/parabellum/episodes/A-Revista-Semanal-do-Amigo-Ona-Pintadista-e1h9ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Revista Semanal do Amigo Varg Brasileirista</t>
+  </si>
+  <si>
+    <t>https://anchor.fm/s/6d5d0134/podcast/play/53334064/https%3A%2F%2Fd3ctxlq1ktw2nl.cloudfront.net%2Fstaging%2F2022-5-11%2Fef5d5010-133e-a640-74f4-cd5639e93070.mp3</t>
+  </si>
+  <si>
+    <t>https://podcasters.spotify.com/pod/show/parabellum/episodes/A-Revista-Semanal-do-Amigo-Varg-Brasileirista-e1jq4jg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Revista Semanal do Amigo Sheik Golpista</t>
+  </si>
+  <si>
+    <t>https://anchor.fm/s/6d5d0134/podcast/play/54323272/https%3A%2F%2Fd3ctxlq1ktw2nl.cloudfront.net%2Fstaging%2F2022-6-3%2Fcb566692-6a27-3c9e-3ff2-785bd32ccbfb.mp3</t>
+  </si>
+  <si>
+    <t>https://podcasters.spotify.com/pod/show/parabellum/episodes/A-Revista-Semanal-do-Amigo-Sheik-Golpista-e1koak8</t>
+  </si>
+  <si>
     <t xml:space="preserve">E AEEE - Leitura de E-mails com Hermetic Mage, Mercurial Overload aka O Mago do Shape</t>
   </si>
   <si>
@@ -34,219 +253,6 @@
   </si>
   <si>
     <t>https://podcasters.spotify.com/pod/show/parabellum/episodes/E-AEEE---Leitura-de-E-mails-com-Hermetic-Mage--Mercurial-Overload-aka-O-Mago-do-Shape-e1mhs8f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Revista Semanal do Amigo Sheik Golpista</t>
-  </si>
-  <si>
-    <t>https://anchor.fm/s/6d5d0134/podcast/play/54323272/https%3A%2F%2Fd3ctxlq1ktw2nl.cloudfront.net%2Fstaging%2F2022-6-3%2Fcb566692-6a27-3c9e-3ff2-785bd32ccbfb.mp3</t>
-  </si>
-  <si>
-    <t>https://podcasters.spotify.com/pod/show/parabellum/episodes/A-Revista-Semanal-do-Amigo-Sheik-Golpista-e1koak8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Revista Semanal do Amigo Varg Brasileirista</t>
-  </si>
-  <si>
-    <t>https://anchor.fm/s/6d5d0134/podcast/play/53334064/https%3A%2F%2Fd3ctxlq1ktw2nl.cloudfront.net%2Fstaging%2F2022-5-11%2Fef5d5010-133e-a640-74f4-cd5639e93070.mp3</t>
-  </si>
-  <si>
-    <t>https://podcasters.spotify.com/pod/show/parabellum/episodes/A-Revista-Semanal-do-Amigo-Varg-Brasileirista-e1jq4jg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Revista Semanal do Amigo Onça-Pintadista</t>
-  </si>
-  <si>
-    <t>https://anchor.fm/s/6d5d0134/podcast/play/50685912/https%3A%2F%2Fd3ctxlq1ktw2nl.cloudfront.net%2Fstaging%2F2022-3-17%2Fe3460aee-cba8-1c5d-6e9c-60a5efba40a6.mp3</t>
-  </si>
-  <si>
-    <t>https://podcasters.spotify.com/pod/show/parabellum/episodes/A-Revista-Semanal-do-Amigo-Ona-Pintadista-e1h9ago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E AEEE - Leitura de E-mails com Me Ne Frego e Rajji</t>
-  </si>
-  <si>
-    <t>https://anchor.fm/s/6d5d0134/podcast/play/49578472/https%3A%2F%2Fd3ctxlq1ktw2nl.cloudfront.net%2Fstaging%2F2022-2-25%2Fbdfb5a13-fafc-2fa6-f008-2eea3aa38fdf.mp3</t>
-  </si>
-  <si>
-    <t>https://podcasters.spotify.com/pod/show/parabellum/episodes/E-AEEE---Leitura-de-E-mails-com-Me-Ne-Frego-e-Rajji-e1g7h18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E AEE - Leitura de E-mails com Me Ne Frego e Rajji</t>
-  </si>
-  <si>
-    <t>https://anchor.fm/s/6d5d0134/podcast/play/49270098/https%3A%2F%2Fd3ctxlq1ktw2nl.cloudfront.net%2Fstaging%2F2022-2-18%2Fca558bca-77d8-feb3-9a00-2a008e961cad.mp3</t>
-  </si>
-  <si>
-    <t>https://podcasters.spotify.com/pod/show/parabellum/episodes/E-AEE---Leitura-de-E-mails-com-Me-Ne-Frego-e-Rajji-e1fu3si</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Revista Semanal do Amigo Guerrista, com Based Viriatov (ministro de propaganda Russa)</t>
-  </si>
-  <si>
-    <t>https://anchor.fm/s/6d5d0134/podcast/play/48292147/https%3A%2F%2Fd3ctxlq1ktw2nl.cloudfront.net%2Fstaging%2F2022-1-27%2F5b4ad467-d048-6dc8-6307-8b9ff6d4552f.mp3</t>
-  </si>
-  <si>
-    <t>https://podcasters.spotify.com/pod/show/parabellum/episodes/A-Revista-Semanal-do-Amigo-Guerrista--com-Based-Viriatov-ministro-de-propaganda-Russa-e1f08rj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Revista Semanal do Amigo Monarkista (Me Ne Frego e Rajji)</t>
-  </si>
-  <si>
-    <t>https://anchor.fm/s/6d5d0134/podcast/play/47854518/https%3A%2F%2Fd3ctxlq1ktw2nl.cloudfront.net%2Fstaging%2F2022-1-18%2Fb0b3c89d-a53a-2a92-5f88-4cb904ebd651.mp3</t>
-  </si>
-  <si>
-    <t>https://podcasters.spotify.com/pod/show/parabellum/episodes/A-Revista-Semanal-do-Amigo-Monarkista-Me-Ne-Frego-e-Rajji-e1eitfm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Revista Anual do Amigo Superbowlista (com Zatanna e sem o Rajji)</t>
-  </si>
-  <si>
-    <t>https://anchor.fm/s/6d5d0134/podcast/play/47615802/https%3A%2F%2Fd3ctxlq1ktw2nl.cloudfront.net%2Fstaging%2F2022-1-13%2Fd3b47731-3e41-9948-15bf-94d455366021.mp3</t>
-  </si>
-  <si>
-    <t>https://podcasters.spotify.com/pod/show/parabellum/episodes/A-Revista-Anual-do-Amigo-Superbowlista-com-Zatanna-e-sem-o-Rajji-e1ebkbq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Revista Semanal do Amigo Adolfista (Me Ne Frego e Rajji)</t>
-  </si>
-  <si>
-    <t>https://anchor.fm/s/6d5d0134/podcast/play/46774844/https%3A%2F%2Fd3ctxlq1ktw2nl.cloudfront.net%2Fstaging%2F2022-0-27%2F4583385d-e197-22a9-eac5-41601e17a001.mp3</t>
-  </si>
-  <si>
-    <t>https://podcasters.spotify.com/pod/show/parabellum/episodes/A-Revista-Semanal-do-Amigo-Adolfista-Me-Ne-Frego-e-Rajji-e1dhv3s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Favela: Uma Amostra Grátis do Inferno - Nenemshow 1 (Nenem Preto)</t>
-  </si>
-  <si>
-    <t>https://anchor.fm/s/6d5d0134/podcast/play/46224964/https%3A%2F%2Fd3ctxlq1ktw2nl.cloudfront.net%2Fstaging%2F2022-0-16%2Feaabcbca-d88c-1899-40e4-87a7ba0c2695.mp3</t>
-  </si>
-  <si>
-    <t>https://podcasters.spotify.com/pod/show/parabellum/episodes/Favela-Uma-Amostra-Grtis-do-Inferno---Nenemshow-1-Nenem-Preto-e1d1644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E AE#01 - Leitura de E-mails com Me Ne Frego e Rajji</t>
-  </si>
-  <si>
-    <t>https://anchor.fm/s/6d5d0134/podcast/play/46080909/https%3A%2F%2Fd3ctxlq1ktw2nl.cloudfront.net%2Fstaging%2F2022-0-13%2F2ec235c1-fb6f-eedf-0701-31452a9d313d.mp3</t>
-  </si>
-  <si>
-    <t>https://podcasters.spotify.com/pod/show/parabellum/episodes/E-AE01---Leitura-de-E-mails-com-Me-Ne-Frego-e-Rajji-e1csped</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Revista Semanal do Amigo Natalista (com Based Viriato)</t>
-  </si>
-  <si>
-    <t>https://anchor.fm/s/6d5d0134/podcast/play/45380223/https%3A%2F%2Fd3ctxlq1ktw2nl.cloudfront.net%2Fstaging%2F2021-11-27%2Ffcd9ea12-98c5-b1e2-e0eb-b99f5fad180a.mp3</t>
-  </si>
-  <si>
-    <t>https://podcasters.spotify.com/pod/show/parabellum/episodes/A-Revista-Semanal-do-Amigo-Natalista-com-Based-Viriato-e1c7d5v</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Revista Semanal do Amigo IT'S HAPPENista (Me Ne Frego, Rajji e Nadim)</t>
-  </si>
-  <si>
-    <t>https://anchor.fm/s/6d5d0134/podcast/play/44709137/https%3A%2F%2Fd3ctxlq1ktw2nl.cloudfront.net%2Fstaging%2F2021-11-11%2F908f7df2-8730-0bc5-18a7-cab91b4e544b.mp3</t>
-  </si>
-  <si>
-    <t>https://podcasters.spotify.com/pod/show/parabellum/episodes/A-Revista-Semanal-do-Amigo-ITS-HAPPENista-Me-Ne-Frego--Rajji-e-Nadim-e1bitqh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corações Sujos: A História da Shindo-Renmei no Brasil (Me Ne Frego Especial)</t>
-  </si>
-  <si>
-    <t>https://anchor.fm/s/6d5d0134/podcast/play/44436712/https%3A%2F%2Fd3ctxlq1ktw2nl.cloudfront.net%2Fstaging%2F2021-11-6%2Fa7c91c8f-0ef6-1b89-d671-e88c5b0ee3f7.mp3</t>
-  </si>
-  <si>
-    <t>https://podcasters.spotify.com/pod/show/parabellum/episodes/Coraes-Sujos-A-Histria-da-Shindo-Renmei-no-Brasil-Me-Ne-Frego-Especial-e1bajp8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Revista Semanal do Amigo PresuntoCuckista (Me Ne Frego e Rajji)</t>
-  </si>
-  <si>
-    <t>https://anchor.fm/s/6d5d0134/podcast/play/43773936/https%3A%2F%2Fd3ctxlq1ktw2nl.cloudfront.net%2Fstaging%2F2021-10-23%2F73efdbd7-ba63-6438-eefd-f56827bc7bd4.mp3</t>
-  </si>
-  <si>
-    <t>https://podcasters.spotify.com/pod/show/parabellum/episodes/A-Revista-Semanal-do-Amigo-PresuntoCuckista-Me-Ne-Frego-e-Rajji-e1amchg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Revista Semanal do Amigo BenMendista (Me Ne Frego e Rajji)</t>
-  </si>
-  <si>
-    <t>https://anchor.fm/s/6d5d0134/podcast/play/42948976/https%3A%2F%2Fd3ctxlq1ktw2nl.cloudfront.net%2Fstaging%2F2021-10-7%2F2c74ce7a-8794-b267-cedb-b60464037db8.mp3</t>
-  </si>
-  <si>
-    <t>https://podcasters.spotify.com/pod/show/parabellum/episodes/A-Revista-Semanal-do-Amigo-BenMendista-Me-Ne-Frego-e-Rajji-e19t6tg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Santos Pecadores (Me Ne Frego e Neném Preto)</t>
-  </si>
-  <si>
-    <t>https://anchor.fm/s/6d5d0134/podcast/play/42547941/https%3A%2F%2Fd3ctxlq1ktw2nl.cloudfront.net%2Fstaging%2F2021-9-29%2F469a6ce8-8914-5e6b-42e4-2acd16e23442.mp3</t>
-  </si>
-  <si>
-    <t>https://podcasters.spotify.com/pod/show/parabellum/episodes/Santos-Pecadores-Me-Ne-Frego-e-Nenm-Preto-e19gv95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Revista Semanal do Amigo DomingoLegalista (Me Ne Frego e Rajji)</t>
-  </si>
-  <si>
-    <t>https://podcasters.spotify.com/pod/show/parabellum/episodes/A-Revista-Semanal-do-Amigo-DomingoLegalista-Me-Ne-Frego-e-Rajji-e19d3ok</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Revista Semanal do Amigo NovoCastelista (Me Ne Frego e Rajji)</t>
-  </si>
-  <si>
-    <t>https://anchor.fm/s/6d5d0134/podcast/play/41685889/https%3A%2F%2Fd3ctxlq1ktw2nl.cloudfront.net%2Fstaging%2F2021-9-12%2F8c01c2e8-99ab-0a78-f569-b9e2ccae20ef.mp3</t>
-  </si>
-  <si>
-    <t>https://podcasters.spotify.com/pod/show/parabellum/episodes/A-Revista-Semanal-do-Amigo-NovoCastelista-Me-Ne-Frego-e-Rajji-e18mle1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Os Doze Trabalhos de Hércules 7-12 (Me Ne Frego e Invictus)</t>
-  </si>
-  <si>
-    <t>https://anchor.fm/s/6d5d0134/podcast/play/41182490/https%3A%2F%2Fd3ctxlq1ktw2nl.cloudfront.net%2Fstaging%2F2021-9-2%2Ff12f378f-de7f-a0d1-6ac1-9cdea15bdaba.mp3</t>
-  </si>
-  <si>
-    <t>https://podcasters.spotify.com/pod/show/parabellum/episodes/Os-Doze-Trabalhos-de-Hrcules-7-12-Me-Ne-Frego-e-Invictus-e1879qq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Os Doze Trabalhos de Hércules 1-6 (Me Ne Frego e Invictus)</t>
-  </si>
-  <si>
-    <t>https://anchor.fm/s/6d5d0134/podcast/play/41182164/https%3A%2F%2Fd3ctxlq1ktw2nl.cloudfront.net%2Fstaging%2F2021-9-2%2Ffd1cb292-abe9-97d5-5389-25637c0d5a29.mp3</t>
-  </si>
-  <si>
-    <t>https://podcasters.spotify.com/pod/show/parabellum/episodes/Os-Doze-Trabalhos-de-Hrcules-1-6-Me-Ne-Frego-e-Invictus-e1879gk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Revista Semanal do Amigo Pecuarista (Me Ne Frego e Rajji)</t>
-  </si>
-  <si>
-    <t>https://anchor.fm/s/6d5d0134/podcast/play/41000347/https%3A%2F%2Fd3ctxlq1ktw2nl.cloudfront.net%2Fstaging%2F2021-8-29%2Fe37f66ed-58d7-0a4f-c99c-e3272c24c967.mp3</t>
-  </si>
-  <si>
-    <t>https://podcasters.spotify.com/pod/show/parabellum/episodes/A-Revista-Semanal-do-Amigo-Pecuarista-Me-Ne-Frego-e-Rajji-e181nur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hirohito - O Filho do Sol (Me Ne Frego Especial)</t>
-  </si>
-  <si>
-    <t>https://podcasters.spotify.com/pod/show/parabellum/episodes/Hirohito---O-Filho-do-Sol-Me-Ne-Frego-Especial-e17vplq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Franco - Generalissimo (Me Ne Frego Especial)</t>
-  </si>
-  <si>
-    <t>https://podcasters.spotify.com/pod/show/parabellum/episodes/Franco---Generalissimo-Me-Ne-Frego-Especial-e17vq1g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Primo de Rivera - Mártir (Me Ne Frego Especial)</t>
-  </si>
-  <si>
-    <t>https://podcasters.spotify.com/pod/show/parabellum/episodes/Primo-de-Rivera---Mrtir-Me-Ne-Frego-Especial-e17vqj5</t>
   </si>
 </sst>
 </file>
@@ -254,7 +260,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="160" formatCode="dd/mm/yyyy h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy h:mm:ss"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -344,11 +350,11 @@
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="1" applyFont="1"/>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
       <protection hidden="0" locked="1"/>
     </xf>
@@ -871,6 +877,8 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col bestFit="1" customWidth="1" min="1" max="1" width="112.57421875"/>
+    <col customWidth="1" min="2" max="2" width="23.421875"/>
+    <col customWidth="1" min="3" max="3" width="26.28125"/>
     <col bestFit="1" min="4" max="4" width="25.140625"/>
   </cols>
   <sheetData>
@@ -892,356 +900,356 @@
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="D2" s="5">
-        <v>44788.768055555556</v>
+        <v>44466.981944444444</v>
       </c>
     </row>
     <row r="3" ht="14.25">
       <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="6">
-        <v>44745.074999999997</v>
+      <c r="D3" s="5">
+        <v>44466.982638888891</v>
       </c>
     </row>
     <row r="4" ht="14.25">
       <c r="A4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="6">
-        <v>44723.092361111114</v>
+        <v>9</v>
+      </c>
+      <c r="D4" s="5">
+        <v>44466.988888888889</v>
       </c>
     </row>
     <row r="5" ht="14.25">
       <c r="A5" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="6">
-        <v>44668.099999999999</v>
+        <v>12</v>
+      </c>
+      <c r="D5" s="5">
+        <v>44468.128472222219</v>
       </c>
     </row>
     <row r="6" ht="14.25">
       <c r="A6" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="6">
-        <v>44645.126388888886</v>
+        <v>15</v>
+      </c>
+      <c r="D6" s="5">
+        <v>44471.694444444445</v>
       </c>
     </row>
     <row r="7" ht="14.25">
       <c r="A7" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="6">
-        <v>44638.988194444442</v>
+        <v>18</v>
+      </c>
+      <c r="D7" s="5">
+        <v>44471.699305555558</v>
       </c>
     </row>
     <row r="8" ht="14.25">
       <c r="A8" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="6">
-        <v>44619.836111111108</v>
+        <v>21</v>
+      </c>
+      <c r="D8" s="5">
+        <v>44481.872916666667</v>
       </c>
     </row>
     <row r="9" ht="14.25">
       <c r="A9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B9" s="3"/>
       <c r="C9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="6">
-        <v>44610.601388888892</v>
+        <v>23</v>
+      </c>
+      <c r="D9" s="5">
+        <v>44496.704861111109</v>
       </c>
     </row>
     <row r="10" ht="14.25">
       <c r="A10" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="6">
-        <v>44605.925000000003</v>
+        <v>26</v>
+      </c>
+      <c r="D10" s="5">
+        <v>44499.040277777778</v>
       </c>
     </row>
     <row r="11" ht="14.25">
       <c r="A11" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="6">
-        <v>44588.831250000003</v>
+        <v>29</v>
+      </c>
+      <c r="D11" s="5">
+        <v>44507.654166666667</v>
       </c>
     </row>
     <row r="12" ht="14.25">
       <c r="A12" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="6">
-        <v>44577.630555555559</v>
+        <v>32</v>
+      </c>
+      <c r="D12" s="5">
+        <v>44523.15625</v>
       </c>
     </row>
     <row r="13" ht="14.25">
       <c r="A13" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="6">
-        <v>44574.076388888891</v>
+        <v>35</v>
+      </c>
+      <c r="D13" s="5">
+        <v>44536.579861111109</v>
       </c>
     </row>
     <row r="14" ht="14.25">
       <c r="A14" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="6">
-        <v>44557.820833333331</v>
+        <v>38</v>
+      </c>
+      <c r="D14" s="5">
+        <v>44541.845833333333</v>
       </c>
     </row>
     <row r="15" ht="14.25">
       <c r="A15" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="6">
-        <v>44541.845833333333</v>
+        <v>41</v>
+      </c>
+      <c r="D15" s="5">
+        <v>44557.820833333331</v>
       </c>
     </row>
     <row r="16" ht="14.25">
       <c r="A16" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="6">
-        <v>44536.579861111109</v>
+        <v>44</v>
+      </c>
+      <c r="D16" s="5">
+        <v>44574.076388888891</v>
       </c>
     </row>
     <row r="17" ht="14.25">
       <c r="A17" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="6">
-        <v>44523.15625</v>
+        <v>47</v>
+      </c>
+      <c r="D17" s="5">
+        <v>44577.630555555559</v>
       </c>
     </row>
     <row r="18" ht="14.25">
       <c r="A18" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="6">
-        <v>44507.654166666667</v>
+        <v>50</v>
+      </c>
+      <c r="D18" s="5">
+        <v>44588.831250000003</v>
       </c>
     </row>
     <row r="19" ht="14.25">
       <c r="A19" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="6">
-        <v>44499.040277777778</v>
+        <v>53</v>
+      </c>
+      <c r="D19" s="5">
+        <v>44605.925000000003</v>
       </c>
     </row>
     <row r="20" ht="14.25">
       <c r="A20" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="C20" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="6">
-        <v>44496.704861111109</v>
+        <v>56</v>
+      </c>
+      <c r="D20" s="5">
+        <v>44610.601388888892</v>
       </c>
     </row>
     <row r="21" ht="14.25">
       <c r="A21" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="6">
-        <v>44481.872916666667</v>
+        <v>59</v>
+      </c>
+      <c r="D21" s="5">
+        <v>44619.836111111108</v>
       </c>
     </row>
     <row r="22" ht="14.25">
       <c r="A22" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="6">
-        <v>44471.699305555558</v>
+        <v>62</v>
+      </c>
+      <c r="D22" s="5">
+        <v>44638.988194444442</v>
       </c>
     </row>
     <row r="23" ht="14.25">
       <c r="A23" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="6">
-        <v>44471.694444444445</v>
+        <v>65</v>
+      </c>
+      <c r="D23" s="5">
+        <v>44645.126388888886</v>
       </c>
     </row>
     <row r="24" ht="14.25">
       <c r="A24" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="6">
-        <v>44468.128472222219</v>
+        <v>68</v>
+      </c>
+      <c r="D24" s="5">
+        <v>44668.099999999999</v>
       </c>
     </row>
     <row r="25" ht="14.25">
       <c r="A25" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="C25" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D25" s="6">
-        <v>44466.988888888889</v>
+        <v>71</v>
+      </c>
+      <c r="D25" s="5">
+        <v>44723.092361111114</v>
       </c>
     </row>
     <row r="26" ht="14.25">
       <c r="A26" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" s="6">
-        <v>44466.982638888891</v>
+      <c r="D26" s="5">
+        <v>44745.074999999997</v>
       </c>
     </row>
     <row r="27" ht="14.25">
       <c r="A27" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="3"/>
       <c r="C27" s="4" t="s">
         <v>77</v>
       </c>
       <c r="D27" s="6">
-        <v>44466.981944444444</v>
+        <v>44788.768055555556</v>
       </c>
     </row>
     <row r="28" ht="14.25">
@@ -1251,58 +1259,63 @@
       <c r="D28" s="8"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D1">
+    <sortState ref="A2:D27">
+      <sortCondition descending="0" ref="D1"/>
+    </sortState>
+  </autoFilter>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B2"/>
-    <hyperlink r:id="rId2" ref="C2"/>
-    <hyperlink r:id="rId3" ref="B3"/>
-    <hyperlink r:id="rId4" ref="C3"/>
-    <hyperlink r:id="rId5" ref="B4"/>
-    <hyperlink r:id="rId6" ref="C4"/>
-    <hyperlink r:id="rId7" ref="B5"/>
-    <hyperlink r:id="rId8" ref="C5"/>
-    <hyperlink r:id="rId9" ref="B6"/>
-    <hyperlink r:id="rId10" ref="C6"/>
-    <hyperlink r:id="rId11" ref="B7"/>
-    <hyperlink r:id="rId12" ref="C7"/>
-    <hyperlink r:id="rId13" ref="B8"/>
-    <hyperlink r:id="rId14" ref="C8"/>
-    <hyperlink r:id="rId15" ref="B9"/>
-    <hyperlink r:id="rId16" ref="C9"/>
-    <hyperlink r:id="rId17" ref="B10"/>
-    <hyperlink r:id="rId18" ref="C10"/>
-    <hyperlink r:id="rId19" ref="B11"/>
-    <hyperlink r:id="rId20" ref="C11"/>
-    <hyperlink r:id="rId21" ref="B12"/>
-    <hyperlink r:id="rId22" ref="C12"/>
-    <hyperlink r:id="rId23" ref="B13"/>
-    <hyperlink r:id="rId24" ref="C13"/>
-    <hyperlink r:id="rId25" ref="B14"/>
-    <hyperlink r:id="rId26" ref="C14"/>
-    <hyperlink r:id="rId27" ref="B15"/>
-    <hyperlink r:id="rId28" ref="C15"/>
-    <hyperlink r:id="rId29" ref="B16"/>
-    <hyperlink r:id="rId30" ref="C16"/>
-    <hyperlink r:id="rId31" ref="B17"/>
-    <hyperlink r:id="rId32" ref="C17"/>
-    <hyperlink r:id="rId33" ref="B18"/>
-    <hyperlink r:id="rId34" ref="C18"/>
-    <hyperlink r:id="rId35" ref="B19"/>
-    <hyperlink r:id="rId36" ref="C19"/>
-    <hyperlink r:id="rId37" ref="C20"/>
-    <hyperlink r:id="rId38" ref="B21"/>
-    <hyperlink r:id="rId39" ref="C21"/>
-    <hyperlink r:id="rId40" ref="B22"/>
-    <hyperlink r:id="rId41" ref="C22"/>
-    <hyperlink r:id="rId42" ref="B23"/>
-    <hyperlink r:id="rId43" ref="C23"/>
-    <hyperlink r:id="rId44" ref="B24"/>
-    <hyperlink r:id="rId45" ref="C24"/>
-    <hyperlink r:id="rId46" ref="C25"/>
-    <hyperlink r:id="rId47" ref="C26"/>
+    <hyperlink r:id="rId1" ref="C2"/>
+    <hyperlink r:id="rId2" ref="C3"/>
+    <hyperlink r:id="rId3" ref="C4"/>
+    <hyperlink r:id="rId4" ref="B5"/>
+    <hyperlink r:id="rId5" ref="C5"/>
+    <hyperlink r:id="rId6" ref="B6"/>
+    <hyperlink r:id="rId7" ref="C6"/>
+    <hyperlink r:id="rId8" ref="B7"/>
+    <hyperlink r:id="rId9" ref="C7"/>
+    <hyperlink r:id="rId10" ref="B8"/>
+    <hyperlink r:id="rId11" ref="C8"/>
+    <hyperlink r:id="rId12" ref="C9"/>
+    <hyperlink r:id="rId13" ref="B10"/>
+    <hyperlink r:id="rId14" ref="C10"/>
+    <hyperlink r:id="rId15" ref="B11"/>
+    <hyperlink r:id="rId16" ref="C11"/>
+    <hyperlink r:id="rId17" ref="B12"/>
+    <hyperlink r:id="rId18" ref="C12"/>
+    <hyperlink r:id="rId19" ref="B13"/>
+    <hyperlink r:id="rId20" ref="C13"/>
+    <hyperlink r:id="rId21" ref="B14"/>
+    <hyperlink r:id="rId22" ref="C14"/>
+    <hyperlink r:id="rId23" ref="B15"/>
+    <hyperlink r:id="rId24" ref="C15"/>
+    <hyperlink r:id="rId25" ref="B16"/>
+    <hyperlink r:id="rId26" ref="C16"/>
+    <hyperlink r:id="rId27" ref="B17"/>
+    <hyperlink r:id="rId28" ref="C17"/>
+    <hyperlink r:id="rId29" ref="B18"/>
+    <hyperlink r:id="rId30" ref="C18"/>
+    <hyperlink r:id="rId31" ref="B19"/>
+    <hyperlink r:id="rId32" ref="C19"/>
+    <hyperlink r:id="rId33" ref="B20"/>
+    <hyperlink r:id="rId34" ref="C20"/>
+    <hyperlink r:id="rId35" ref="B21"/>
+    <hyperlink r:id="rId36" ref="C21"/>
+    <hyperlink r:id="rId37" ref="B22"/>
+    <hyperlink r:id="rId38" ref="C22"/>
+    <hyperlink r:id="rId39" ref="B23"/>
+    <hyperlink r:id="rId40" ref="C23"/>
+    <hyperlink r:id="rId41" ref="B24"/>
+    <hyperlink r:id="rId42" ref="C24"/>
+    <hyperlink r:id="rId43" ref="B25"/>
+    <hyperlink r:id="rId44" ref="C25"/>
+    <hyperlink r:id="rId45" ref="B26"/>
+    <hyperlink r:id="rId46" ref="C26"/>
+    <hyperlink r:id="rId47" ref="B27"/>
     <hyperlink r:id="rId48" ref="C27"/>
   </hyperlinks>
   <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157500000008" bottom="0.78740157500000008" header="0.31496062000000008" footer="0.31496062000000008"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157500000008" bottom="0.78740157500000008" header="0.31496062000000014" footer="0.31496062000000014"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
